--- a/food_item_data.xlsx
+++ b/food_item_data.xlsx
@@ -2127,17 +2127,17 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="31.0"/>
+    <col customWidth="1" min="3" max="3" width="23.63"/>
     <col customWidth="1" min="4" max="4" width="15.88"/>
     <col customWidth="1" min="5" max="5" width="8.5"/>
     <col customWidth="1" min="6" max="6" width="10.25"/>
     <col customWidth="1" min="7" max="7" width="11.63"/>
     <col customWidth="1" min="8" max="8" width="12.63"/>
     <col customWidth="1" min="9" max="9" width="12.0"/>
-    <col customWidth="1" min="10" max="10" width="11.88"/>
-    <col customWidth="1" min="11" max="11" width="16.25"/>
-    <col customWidth="1" min="12" max="12" width="12.88"/>
+    <col customWidth="1" min="10" max="10" width="23.88"/>
+    <col customWidth="1" min="11" max="11" width="9.0"/>
+    <col customWidth="1" min="12" max="12" width="21.63"/>
     <col customWidth="1" min="13" max="13" width="17.0"/>
   </cols>
   <sheetData>
@@ -2148,7 +2148,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4716,10 +4716,10 @@
       <c r="A62" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -4913,7 +4913,7 @@
         <v>56</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>23</v>
@@ -4956,7 +4956,7 @@
         <v>56</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>23</v>
@@ -5042,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>23</v>
@@ -5386,7 +5386,7 @@
         <v>21</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>23</v>
@@ -5429,7 +5429,7 @@
         <v>56</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>23</v>
@@ -5558,7 +5558,7 @@
         <v>56</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>23</v>
@@ -5601,7 +5601,7 @@
         <v>21</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>23</v>
@@ -5644,7 +5644,7 @@
         <v>56</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>23</v>
@@ -7407,7 +7407,7 @@
         <v>56</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>23</v>
@@ -7450,7 +7450,7 @@
         <v>56</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>23</v>
@@ -8052,7 +8052,7 @@
         <v>56</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>355</v>
@@ -9170,7 +9170,7 @@
         <v>56</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K165" s="7" t="s">
         <v>355</v>
@@ -9342,7 +9342,7 @@
         <v>56</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K169" s="7" t="s">
         <v>355</v>
@@ -9557,7 +9557,7 @@
         <v>56</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K174" s="7" t="s">
         <v>355</v>
@@ -11234,7 +11234,7 @@
         <v>21</v>
       </c>
       <c r="J213" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K213" s="7" t="s">
         <v>355</v>
@@ -11750,7 +11750,7 @@
         <v>21</v>
       </c>
       <c r="J225" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K225" s="7" t="s">
         <v>202</v>
@@ -11836,7 +11836,7 @@
         <v>21</v>
       </c>
       <c r="J227" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K227" s="7" t="s">
         <v>202</v>
@@ -11879,7 +11879,7 @@
         <v>21</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K228" s="7" t="s">
         <v>355</v>
@@ -11965,7 +11965,7 @@
         <v>21</v>
       </c>
       <c r="J230" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K230" s="7" t="s">
         <v>355</v>
@@ -12008,7 +12008,7 @@
         <v>21</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K231" s="7" t="s">
         <v>23</v>
@@ -12137,7 +12137,7 @@
         <v>21</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K234" s="7" t="s">
         <v>355</v>
@@ -12266,7 +12266,7 @@
         <v>21</v>
       </c>
       <c r="J237" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K237" s="7" t="s">
         <v>355</v>
@@ -12309,7 +12309,7 @@
         <v>21</v>
       </c>
       <c r="J238" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K238" s="7" t="s">
         <v>355</v>
@@ -12352,7 +12352,7 @@
         <v>21</v>
       </c>
       <c r="J239" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K239" s="7" t="s">
         <v>355</v>
@@ -12438,7 +12438,7 @@
         <v>21</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>355</v>
@@ -12481,7 +12481,7 @@
         <v>21</v>
       </c>
       <c r="J242" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K242" s="7" t="s">
         <v>355</v>
@@ -12524,7 +12524,7 @@
         <v>21</v>
       </c>
       <c r="J243" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K243" s="7" t="s">
         <v>355</v>
@@ -12567,7 +12567,7 @@
         <v>21</v>
       </c>
       <c r="J244" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K244" s="7" t="s">
         <v>355</v>
@@ -12782,7 +12782,7 @@
         <v>21</v>
       </c>
       <c r="J249" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K249" s="7" t="s">
         <v>355</v>
